--- a/data/BPSC_Star_Database.xlsx
+++ b/data/BPSC_Star_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanb\Dev\bpscStar\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B47B59DA-94FA-44E6-9AA2-B45239C7F03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4387479-E111-4967-BDBD-74C30E93E6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{23F58E0D-0DA1-41E2-BBDD-55E071593C72}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{23F58E0D-0DA1-41E2-BBDD-55E071593C72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Paper</t>
   </si>
@@ -94,6 +94,33 @@
   </si>
   <si>
     <t>SpaceTechnology; ISRO; SpaceMissions;</t>
+  </si>
+  <si>
+    <t>Nanotechnology has a huge potential to transform people's lives for the better. Justify the statement with appropriate examples.</t>
+  </si>
+  <si>
+    <t>Discuss the role of nanotechnology in health sector. Mention with example how it is used for treatment of various diseases.</t>
+  </si>
+  <si>
+    <t>Nanotechnologies have a huge potential to revolutionise our life. Discuss the emerging applications of nanotechnology in human health.</t>
+  </si>
+  <si>
+    <t>67th_BPSC_CCE_Mains</t>
+  </si>
+  <si>
+    <t>68th_BPSC_CCE_Mains</t>
+  </si>
+  <si>
+    <t>69th_BPSC_CCE_Mains</t>
+  </si>
+  <si>
+    <t>Nanotechnology</t>
+  </si>
+  <si>
+    <t>Nanotechnology; Health;</t>
+  </si>
+  <si>
+    <t>Nanotechnology;</t>
   </si>
 </sst>
 </file>
@@ -448,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57736F12-A59D-4331-BA90-A44F01171E9F}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,6 +589,66 @@
         <v>19</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
